--- a/ep/ep/export/flourish/Joint_group_group.xlsx
+++ b/ep/ep/export/flourish/Joint_group_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="33">
   <si>
     <t>name1</t>
   </si>
@@ -92,13 +92,34 @@
   </si>
   <si>
     <t>Verts/ALE</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/ecr.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/enf.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/independent.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/epp.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/S&amp;D.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/greens.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/alde.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +134,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -147,16 +175,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -524,6 +558,9 @@
       <c r="C2" t="s">
         <v>20</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="J2">
         <v>0.729</v>
       </c>
@@ -568,6 +605,9 @@
       <c r="C3" t="s">
         <v>21</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="H3">
         <v>0.539</v>
       </c>
@@ -594,6 +634,9 @@
       <c r="C4" t="s">
         <v>22</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="H4">
         <v>0.605</v>
       </c>
@@ -641,6 +684,9 @@
       <c r="C5" t="s">
         <v>23</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E5">
         <v>0.736</v>
       </c>
@@ -700,6 +746,9 @@
       <c r="C6" t="s">
         <v>24</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E6">
         <v>0.778</v>
       </c>
@@ -759,6 +808,9 @@
       <c r="C7" t="s">
         <v>25</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="I7">
         <v>0.626</v>
       </c>
@@ -794,6 +846,9 @@
       <c r="C8" t="s">
         <v>19</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="J8">
         <v>0.729</v>
       </c>
@@ -838,6 +893,9 @@
       <c r="C9" t="s">
         <v>21</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="P9">
         <v>0.466</v>
       </c>
@@ -861,6 +919,9 @@
       <c r="C10" t="s">
         <v>22</v>
       </c>
+      <c r="D10" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="J10">
         <v>0.573</v>
       </c>
@@ -905,6 +966,9 @@
       <c r="C11" t="s">
         <v>23</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="J11">
         <v>0.662</v>
       </c>
@@ -949,6 +1013,9 @@
       <c r="C12" t="s">
         <v>24</v>
       </c>
+      <c r="D12" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="J12">
         <v>0.622</v>
       </c>
@@ -993,6 +1060,9 @@
       <c r="C13" t="s">
         <v>25</v>
       </c>
+      <c r="D13" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="P13">
         <v>0.554</v>
       </c>
@@ -1019,6 +1089,9 @@
       <c r="C14" t="s">
         <v>19</v>
       </c>
+      <c r="D14" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="H14">
         <v>0.539</v>
       </c>
@@ -1045,6 +1118,9 @@
       <c r="C15" t="s">
         <v>20</v>
       </c>
+      <c r="D15" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="P15">
         <v>0.466</v>
       </c>
@@ -1068,6 +1144,9 @@
       <c r="C16" t="s">
         <v>22</v>
       </c>
+      <c r="D16" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="P16">
         <v>0.721</v>
       </c>
@@ -1091,6 +1170,9 @@
       <c r="C17" t="s">
         <v>23</v>
       </c>
+      <c r="D17" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H17">
         <v>0.616</v>
       </c>
@@ -1117,6 +1199,9 @@
       <c r="C18" t="s">
         <v>24</v>
       </c>
+      <c r="D18" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="H18">
         <v>0.54</v>
       </c>
@@ -1143,6 +1228,9 @@
       <c r="C19" t="s">
         <v>25</v>
       </c>
+      <c r="D19" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="P19">
         <v>0.456</v>
       </c>
@@ -1166,6 +1254,9 @@
       <c r="C20" t="s">
         <v>19</v>
       </c>
+      <c r="D20" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="H20">
         <v>0.605</v>
       </c>
@@ -1213,6 +1304,9 @@
       <c r="C21" t="s">
         <v>20</v>
       </c>
+      <c r="D21" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="J21">
         <v>0.573</v>
       </c>
@@ -1257,6 +1351,9 @@
       <c r="C22" t="s">
         <v>21</v>
       </c>
+      <c r="D22" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="P22">
         <v>0.721</v>
       </c>
@@ -1280,6 +1377,9 @@
       <c r="C23" t="s">
         <v>23</v>
       </c>
+      <c r="D23" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H23">
         <v>0.588</v>
       </c>
@@ -1327,6 +1427,9 @@
       <c r="C24" t="s">
         <v>24</v>
       </c>
+      <c r="D24" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="H24">
         <v>0.64</v>
       </c>
@@ -1374,6 +1477,9 @@
       <c r="C25" t="s">
         <v>25</v>
       </c>
+      <c r="D25" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="O25">
         <v>0.581</v>
       </c>
@@ -1403,6 +1509,9 @@
       <c r="C26" t="s">
         <v>19</v>
       </c>
+      <c r="D26" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="E26">
         <v>0.736</v>
       </c>
@@ -1462,6 +1571,9 @@
       <c r="C27" t="s">
         <v>20</v>
       </c>
+      <c r="D27" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="J27">
         <v>0.662</v>
       </c>
@@ -1506,6 +1618,9 @@
       <c r="C28" t="s">
         <v>21</v>
       </c>
+      <c r="D28" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="H28">
         <v>0.616</v>
       </c>
@@ -1532,6 +1647,9 @@
       <c r="C29" t="s">
         <v>22</v>
       </c>
+      <c r="D29" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="H29">
         <v>0.588</v>
       </c>
@@ -1579,6 +1697,9 @@
       <c r="C30" t="s">
         <v>24</v>
       </c>
+      <c r="D30" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E30">
         <v>0.6</v>
       </c>
@@ -1638,6 +1759,9 @@
       <c r="C31" t="s">
         <v>25</v>
       </c>
+      <c r="D31" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="I31">
         <v>0.822</v>
       </c>
@@ -1673,6 +1797,9 @@
       <c r="C32" t="s">
         <v>19</v>
       </c>
+      <c r="D32" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="E32">
         <v>0.778</v>
       </c>
@@ -1732,6 +1859,9 @@
       <c r="C33" t="s">
         <v>20</v>
       </c>
+      <c r="D33" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="J33">
         <v>0.622</v>
       </c>
@@ -1776,6 +1906,9 @@
       <c r="C34" t="s">
         <v>21</v>
       </c>
+      <c r="D34" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="H34">
         <v>0.54</v>
       </c>
@@ -1802,6 +1935,9 @@
       <c r="C35" t="s">
         <v>22</v>
       </c>
+      <c r="D35" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="H35">
         <v>0.64</v>
       </c>
@@ -1849,6 +1985,9 @@
       <c r="C36" t="s">
         <v>23</v>
       </c>
+      <c r="D36" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E36">
         <v>0.6</v>
       </c>
@@ -1908,6 +2047,9 @@
       <c r="C37" t="s">
         <v>25</v>
       </c>
+      <c r="D37" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="I37">
         <v>0.8080000000000001</v>
       </c>
@@ -1943,6 +2085,9 @@
       <c r="C38" t="s">
         <v>19</v>
       </c>
+      <c r="D38" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="I38">
         <v>0.626</v>
       </c>
@@ -1978,6 +2123,9 @@
       <c r="C39" t="s">
         <v>20</v>
       </c>
+      <c r="D39" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="P39">
         <v>0.554</v>
       </c>
@@ -2004,6 +2152,9 @@
       <c r="C40" t="s">
         <v>21</v>
       </c>
+      <c r="D40" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="P40">
         <v>0.456</v>
       </c>
@@ -2027,6 +2178,9 @@
       <c r="C41" t="s">
         <v>22</v>
       </c>
+      <c r="D41" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="O41">
         <v>0.581</v>
       </c>
@@ -2056,6 +2210,9 @@
       <c r="C42" t="s">
         <v>23</v>
       </c>
+      <c r="D42" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="I42">
         <v>0.822</v>
       </c>
@@ -2091,6 +2248,9 @@
       <c r="C43" t="s">
         <v>24</v>
       </c>
+      <c r="D43" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="I43">
         <v>0.8080000000000001</v>
       </c>
@@ -2117,6 +2277,50 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
+    <hyperlink ref="D41" r:id="rId40"/>
+    <hyperlink ref="D42" r:id="rId41"/>
+    <hyperlink ref="D43" r:id="rId42"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ep/ep/export/flourish/Joint_group_group.xlsx
+++ b/ep/ep/export/flourish/Joint_group_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="32">
   <si>
     <t>name1</t>
   </si>
@@ -79,37 +79,34 @@
     <t>ECR</t>
   </si>
   <si>
-    <t>ENF</t>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>EPP</t>
+  </si>
+  <si>
+    <t>Greens</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>PPE</t>
-  </si>
-  <si>
     <t>S&amp;D</t>
   </si>
   <si>
-    <t>Verts/ALE</t>
-  </si>
-  <si>
     <t>https://szekelydata.csaladen.es/ep/ep/img/ecr.jpg</t>
   </si>
   <si>
-    <t>https://szekelydata.csaladen.es/ep/ep/img/enf.jpg</t>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/epp.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/greens.png</t>
   </si>
   <si>
     <t>https://szekelydata.csaladen.es/ep/ep/img/independent.png</t>
   </si>
   <si>
-    <t>https://szekelydata.csaladen.es/ep/ep/img/epp.jpg</t>
-  </si>
-  <si>
     <t>https://szekelydata.csaladen.es/ep/ep/img/S&amp;D.png</t>
-  </si>
-  <si>
-    <t>https://szekelydata.csaladen.es/ep/ep/img/greens.png</t>
   </si>
   <si>
     <t>https://szekelydata.csaladen.es/ep/ep/img/alde.jpg</t>
@@ -605,9 +602,6 @@
       <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="H3">
         <v>0.539</v>
       </c>
@@ -635,43 +629,55 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="E4">
+        <v>0.736</v>
+      </c>
+      <c r="F4">
+        <v>0.694</v>
+      </c>
+      <c r="G4">
+        <v>0.8139999999999999</v>
       </c>
       <c r="H4">
-        <v>0.605</v>
+        <v>0.712</v>
+      </c>
+      <c r="I4">
+        <v>0.777</v>
       </c>
       <c r="J4">
-        <v>0.515</v>
+        <v>0.719</v>
       </c>
       <c r="K4">
-        <v>0.602</v>
+        <v>0.785</v>
       </c>
       <c r="L4">
-        <v>0.717</v>
+        <v>0.848</v>
       </c>
       <c r="M4">
-        <v>0.738</v>
+        <v>0.796</v>
       </c>
       <c r="N4">
-        <v>0.716</v>
+        <v>0.785</v>
       </c>
       <c r="O4">
-        <v>0.669</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="P4">
-        <v>0.493</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="Q4">
-        <v>0.462</v>
+        <v>0.806</v>
       </c>
       <c r="R4">
-        <v>0.473</v>
+        <v>0.841</v>
       </c>
       <c r="S4">
-        <v>0.504</v>
+        <v>0.834</v>
       </c>
       <c r="T4">
-        <v>0.547</v>
+        <v>0.783</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -685,55 +691,31 @@
         <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5">
-        <v>0.736</v>
-      </c>
-      <c r="F5">
-        <v>0.694</v>
-      </c>
-      <c r="G5">
-        <v>0.8139999999999999</v>
-      </c>
-      <c r="H5">
-        <v>0.712</v>
+        <v>28</v>
       </c>
       <c r="I5">
-        <v>0.777</v>
+        <v>0.626</v>
       </c>
       <c r="J5">
-        <v>0.719</v>
-      </c>
-      <c r="K5">
-        <v>0.785</v>
-      </c>
-      <c r="L5">
-        <v>0.848</v>
-      </c>
-      <c r="M5">
-        <v>0.796</v>
-      </c>
-      <c r="N5">
-        <v>0.785</v>
+        <v>0.831</v>
       </c>
       <c r="O5">
-        <v>0.8120000000000001</v>
+        <v>0.596</v>
       </c>
       <c r="P5">
-        <v>0.8129999999999999</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="Q5">
-        <v>0.806</v>
+        <v>0.631</v>
       </c>
       <c r="R5">
-        <v>0.841</v>
+        <v>0.663</v>
       </c>
       <c r="S5">
-        <v>0.834</v>
+        <v>0.646</v>
       </c>
       <c r="T5">
-        <v>0.783</v>
+        <v>0.5580000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -747,55 +729,43 @@
         <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6">
-        <v>0.778</v>
-      </c>
-      <c r="F6">
-        <v>0.6840000000000001</v>
-      </c>
-      <c r="G6">
-        <v>0.804</v>
+        <v>29</v>
       </c>
       <c r="H6">
-        <v>0.745</v>
-      </c>
-      <c r="I6">
-        <v>0.77</v>
+        <v>0.605</v>
       </c>
       <c r="J6">
-        <v>0.782</v>
+        <v>0.515</v>
       </c>
       <c r="K6">
-        <v>0.749</v>
+        <v>0.602</v>
       </c>
       <c r="L6">
-        <v>0.857</v>
+        <v>0.717</v>
       </c>
       <c r="M6">
-        <v>0.894</v>
+        <v>0.738</v>
       </c>
       <c r="N6">
-        <v>0.83</v>
+        <v>0.716</v>
       </c>
       <c r="O6">
-        <v>0.774</v>
+        <v>0.669</v>
       </c>
       <c r="P6">
-        <v>0.854</v>
+        <v>0.493</v>
       </c>
       <c r="Q6">
-        <v>0.8129999999999999</v>
+        <v>0.462</v>
       </c>
       <c r="R6">
-        <v>0.8080000000000001</v>
+        <v>0.473</v>
       </c>
       <c r="S6">
-        <v>0.8090000000000001</v>
+        <v>0.504</v>
       </c>
       <c r="T6">
-        <v>0.789</v>
+        <v>0.547</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -809,31 +779,55 @@
         <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>0.778</v>
+      </c>
+      <c r="F7">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="G7">
+        <v>0.804</v>
+      </c>
+      <c r="H7">
+        <v>0.745</v>
       </c>
       <c r="I7">
-        <v>0.626</v>
+        <v>0.77</v>
       </c>
       <c r="J7">
-        <v>0.831</v>
+        <v>0.782</v>
+      </c>
+      <c r="K7">
+        <v>0.749</v>
+      </c>
+      <c r="L7">
+        <v>0.857</v>
+      </c>
+      <c r="M7">
+        <v>0.894</v>
+      </c>
+      <c r="N7">
+        <v>0.83</v>
       </c>
       <c r="O7">
-        <v>0.596</v>
+        <v>0.774</v>
       </c>
       <c r="P7">
-        <v>0.6840000000000001</v>
+        <v>0.854</v>
       </c>
       <c r="Q7">
-        <v>0.631</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="R7">
-        <v>0.663</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="S7">
-        <v>0.646</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="T7">
-        <v>0.5580000000000001</v>
+        <v>0.789</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -847,7 +841,7 @@
         <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J8">
         <v>0.729</v>
@@ -893,9 +887,6 @@
       <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="P9">
         <v>0.466</v>
       </c>
@@ -920,40 +911,40 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J10">
-        <v>0.573</v>
+        <v>0.662</v>
       </c>
       <c r="K10">
-        <v>0.479</v>
+        <v>0.673</v>
       </c>
       <c r="L10">
-        <v>0.47</v>
+        <v>0.527</v>
       </c>
       <c r="M10">
-        <v>0.527</v>
+        <v>0.638</v>
       </c>
       <c r="N10">
-        <v>0.55</v>
+        <v>0.545</v>
       </c>
       <c r="O10">
-        <v>0.5570000000000001</v>
+        <v>0.669</v>
       </c>
       <c r="P10">
-        <v>0.458</v>
+        <v>0.8</v>
       </c>
       <c r="Q10">
-        <v>0.488</v>
+        <v>0.827</v>
       </c>
       <c r="R10">
-        <v>0.486</v>
+        <v>0.83</v>
       </c>
       <c r="S10">
-        <v>0.526</v>
+        <v>0.858</v>
       </c>
       <c r="T10">
-        <v>0.5600000000000001</v>
+        <v>0.826</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -967,40 +958,22 @@
         <v>23</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11">
-        <v>0.662</v>
-      </c>
-      <c r="K11">
-        <v>0.673</v>
-      </c>
-      <c r="L11">
-        <v>0.527</v>
-      </c>
-      <c r="M11">
-        <v>0.638</v>
-      </c>
-      <c r="N11">
-        <v>0.545</v>
-      </c>
-      <c r="O11">
-        <v>0.669</v>
+        <v>28</v>
       </c>
       <c r="P11">
-        <v>0.8</v>
+        <v>0.554</v>
       </c>
       <c r="Q11">
-        <v>0.827</v>
+        <v>0.543</v>
       </c>
       <c r="R11">
-        <v>0.83</v>
+        <v>0.602</v>
       </c>
       <c r="S11">
-        <v>0.858</v>
+        <v>0.528</v>
       </c>
       <c r="T11">
-        <v>0.826</v>
+        <v>0.523</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1014,40 +987,40 @@
         <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J12">
-        <v>0.622</v>
+        <v>0.573</v>
       </c>
       <c r="K12">
-        <v>0.418</v>
+        <v>0.479</v>
       </c>
       <c r="L12">
-        <v>0.492</v>
+        <v>0.47</v>
       </c>
       <c r="M12">
+        <v>0.527</v>
+      </c>
+      <c r="N12">
         <v>0.55</v>
       </c>
-      <c r="N12">
-        <v>0.506</v>
-      </c>
       <c r="O12">
-        <v>0.556</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="P12">
-        <v>0.699</v>
+        <v>0.458</v>
       </c>
       <c r="Q12">
-        <v>0.721</v>
+        <v>0.488</v>
       </c>
       <c r="R12">
-        <v>0.74</v>
+        <v>0.486</v>
       </c>
       <c r="S12">
-        <v>0.728</v>
+        <v>0.526</v>
       </c>
       <c r="T12">
-        <v>0.713</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1061,22 +1034,40 @@
         <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="J13">
+        <v>0.622</v>
+      </c>
+      <c r="K13">
+        <v>0.418</v>
+      </c>
+      <c r="L13">
+        <v>0.492</v>
+      </c>
+      <c r="M13">
+        <v>0.55</v>
+      </c>
+      <c r="N13">
+        <v>0.506</v>
+      </c>
+      <c r="O13">
+        <v>0.556</v>
       </c>
       <c r="P13">
-        <v>0.554</v>
+        <v>0.699</v>
       </c>
       <c r="Q13">
-        <v>0.543</v>
+        <v>0.721</v>
       </c>
       <c r="R13">
-        <v>0.602</v>
+        <v>0.74</v>
       </c>
       <c r="S13">
-        <v>0.528</v>
+        <v>0.728</v>
       </c>
       <c r="T13">
-        <v>0.523</v>
+        <v>0.713</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1090,7 +1081,7 @@
         <v>19</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H14">
         <v>0.539</v>
@@ -1145,19 +1136,22 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="H16">
+        <v>0.616</v>
       </c>
       <c r="P16">
-        <v>0.721</v>
+        <v>0.58</v>
       </c>
       <c r="Q16">
-        <v>0.681</v>
+        <v>0.546</v>
       </c>
       <c r="R16">
-        <v>0.71</v>
+        <v>0.443</v>
       </c>
       <c r="S16">
-        <v>0.729</v>
+        <v>0.5639999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1171,22 +1165,19 @@
         <v>23</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17">
-        <v>0.616</v>
+        <v>28</v>
       </c>
       <c r="P17">
-        <v>0.58</v>
+        <v>0.456</v>
       </c>
       <c r="Q17">
-        <v>0.546</v>
+        <v>0.539</v>
       </c>
       <c r="R17">
-        <v>0.443</v>
+        <v>0.421</v>
       </c>
       <c r="S17">
-        <v>0.5639999999999999</v>
+        <v>0.465</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1200,22 +1191,19 @@
         <v>24</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18">
-        <v>0.54</v>
+        <v>29</v>
       </c>
       <c r="P18">
-        <v>0.508</v>
+        <v>0.721</v>
       </c>
       <c r="Q18">
-        <v>0.528</v>
+        <v>0.681</v>
       </c>
       <c r="R18">
-        <v>0.388</v>
+        <v>0.71</v>
       </c>
       <c r="S18">
-        <v>0.479</v>
+        <v>0.729</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1229,19 +1217,22 @@
         <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="H19">
+        <v>0.54</v>
       </c>
       <c r="P19">
-        <v>0.456</v>
+        <v>0.508</v>
       </c>
       <c r="Q19">
-        <v>0.539</v>
+        <v>0.528</v>
       </c>
       <c r="R19">
-        <v>0.421</v>
+        <v>0.388</v>
       </c>
       <c r="S19">
-        <v>0.465</v>
+        <v>0.479</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1255,43 +1246,55 @@
         <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="E20">
+        <v>0.736</v>
+      </c>
+      <c r="F20">
+        <v>0.694</v>
+      </c>
+      <c r="G20">
+        <v>0.8139999999999999</v>
       </c>
       <c r="H20">
-        <v>0.605</v>
+        <v>0.712</v>
+      </c>
+      <c r="I20">
+        <v>0.777</v>
       </c>
       <c r="J20">
-        <v>0.515</v>
+        <v>0.719</v>
       </c>
       <c r="K20">
-        <v>0.602</v>
+        <v>0.785</v>
       </c>
       <c r="L20">
-        <v>0.717</v>
+        <v>0.848</v>
       </c>
       <c r="M20">
-        <v>0.738</v>
+        <v>0.796</v>
       </c>
       <c r="N20">
-        <v>0.716</v>
+        <v>0.785</v>
       </c>
       <c r="O20">
-        <v>0.669</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="P20">
-        <v>0.493</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="Q20">
-        <v>0.462</v>
+        <v>0.806</v>
       </c>
       <c r="R20">
-        <v>0.473</v>
+        <v>0.841</v>
       </c>
       <c r="S20">
-        <v>0.504</v>
+        <v>0.834</v>
       </c>
       <c r="T20">
-        <v>0.547</v>
+        <v>0.783</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1308,37 +1311,37 @@
         <v>26</v>
       </c>
       <c r="J21">
-        <v>0.573</v>
+        <v>0.662</v>
       </c>
       <c r="K21">
-        <v>0.479</v>
+        <v>0.673</v>
       </c>
       <c r="L21">
-        <v>0.47</v>
+        <v>0.527</v>
       </c>
       <c r="M21">
-        <v>0.527</v>
+        <v>0.638</v>
       </c>
       <c r="N21">
-        <v>0.55</v>
+        <v>0.545</v>
       </c>
       <c r="O21">
-        <v>0.5570000000000001</v>
+        <v>0.669</v>
       </c>
       <c r="P21">
-        <v>0.458</v>
+        <v>0.8</v>
       </c>
       <c r="Q21">
-        <v>0.488</v>
+        <v>0.827</v>
       </c>
       <c r="R21">
-        <v>0.486</v>
+        <v>0.83</v>
       </c>
       <c r="S21">
-        <v>0.526</v>
+        <v>0.858</v>
       </c>
       <c r="T21">
-        <v>0.5600000000000001</v>
+        <v>0.826</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1351,20 +1354,20 @@
       <c r="C22" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>27</v>
+      <c r="H22">
+        <v>0.616</v>
       </c>
       <c r="P22">
-        <v>0.721</v>
+        <v>0.58</v>
       </c>
       <c r="Q22">
-        <v>0.681</v>
+        <v>0.546</v>
       </c>
       <c r="R22">
-        <v>0.71</v>
+        <v>0.443</v>
       </c>
       <c r="S22">
-        <v>0.729</v>
+        <v>0.5639999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1378,43 +1381,31 @@
         <v>23</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23">
-        <v>0.588</v>
+        <v>28</v>
+      </c>
+      <c r="I23">
+        <v>0.822</v>
       </c>
       <c r="J23">
-        <v>0.584</v>
-      </c>
-      <c r="K23">
-        <v>0.604</v>
-      </c>
-      <c r="L23">
-        <v>0.726</v>
-      </c>
-      <c r="M23">
-        <v>0.73</v>
-      </c>
-      <c r="N23">
-        <v>0.746</v>
+        <v>0.951</v>
       </c>
       <c r="O23">
-        <v>0.701</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P23">
-        <v>0.472</v>
+        <v>0.544</v>
       </c>
       <c r="Q23">
-        <v>0.458</v>
+        <v>0.535</v>
       </c>
       <c r="R23">
-        <v>0.457</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="S23">
-        <v>0.504</v>
+        <v>0.532</v>
       </c>
       <c r="T23">
-        <v>0.529</v>
+        <v>0.453</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1428,43 +1419,43 @@
         <v>24</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H24">
-        <v>0.64</v>
+        <v>0.588</v>
       </c>
       <c r="J24">
-        <v>0.526</v>
+        <v>0.584</v>
       </c>
       <c r="K24">
-        <v>0.666</v>
+        <v>0.604</v>
       </c>
       <c r="L24">
-        <v>0.793</v>
+        <v>0.726</v>
       </c>
       <c r="M24">
-        <v>0.757</v>
+        <v>0.73</v>
       </c>
       <c r="N24">
-        <v>0.794</v>
+        <v>0.746</v>
       </c>
       <c r="O24">
-        <v>0.741</v>
+        <v>0.701</v>
       </c>
       <c r="P24">
-        <v>0.515</v>
+        <v>0.472</v>
       </c>
       <c r="Q24">
-        <v>0.534</v>
+        <v>0.458</v>
       </c>
       <c r="R24">
-        <v>0.524</v>
+        <v>0.457</v>
       </c>
       <c r="S24">
-        <v>0.52</v>
+        <v>0.504</v>
       </c>
       <c r="T24">
-        <v>0.598</v>
+        <v>0.529</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1478,25 +1469,55 @@
         <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="E25">
+        <v>0.6</v>
+      </c>
+      <c r="F25">
+        <v>0.583</v>
+      </c>
+      <c r="G25">
+        <v>0.747</v>
+      </c>
+      <c r="H25">
+        <v>0.626</v>
+      </c>
+      <c r="I25">
+        <v>0.775</v>
+      </c>
+      <c r="J25">
+        <v>0.739</v>
+      </c>
+      <c r="K25">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="L25">
+        <v>0.8070000000000001</v>
+      </c>
+      <c r="M25">
+        <v>0.819</v>
+      </c>
+      <c r="N25">
+        <v>0.785</v>
       </c>
       <c r="O25">
-        <v>0.581</v>
+        <v>0.795</v>
       </c>
       <c r="P25">
-        <v>0.622</v>
+        <v>0.772</v>
       </c>
       <c r="Q25">
-        <v>0.633</v>
+        <v>0.767</v>
       </c>
       <c r="R25">
-        <v>0.601</v>
+        <v>0.737</v>
       </c>
       <c r="S25">
-        <v>0.513</v>
+        <v>0.765</v>
       </c>
       <c r="T25">
-        <v>0.703</v>
+        <v>0.755</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -1510,55 +1531,31 @@
         <v>19</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26">
-        <v>0.736</v>
-      </c>
-      <c r="F26">
-        <v>0.694</v>
-      </c>
-      <c r="G26">
-        <v>0.8139999999999999</v>
-      </c>
-      <c r="H26">
-        <v>0.712</v>
+        <v>31</v>
       </c>
       <c r="I26">
-        <v>0.777</v>
+        <v>0.626</v>
       </c>
       <c r="J26">
-        <v>0.719</v>
-      </c>
-      <c r="K26">
-        <v>0.785</v>
-      </c>
-      <c r="L26">
-        <v>0.848</v>
-      </c>
-      <c r="M26">
-        <v>0.796</v>
-      </c>
-      <c r="N26">
-        <v>0.785</v>
+        <v>0.831</v>
       </c>
       <c r="O26">
-        <v>0.8120000000000001</v>
+        <v>0.596</v>
       </c>
       <c r="P26">
-        <v>0.8129999999999999</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="Q26">
-        <v>0.806</v>
+        <v>0.631</v>
       </c>
       <c r="R26">
-        <v>0.841</v>
+        <v>0.663</v>
       </c>
       <c r="S26">
-        <v>0.834</v>
+        <v>0.646</v>
       </c>
       <c r="T26">
-        <v>0.783</v>
+        <v>0.5580000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -1574,38 +1571,20 @@
       <c r="D27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J27">
-        <v>0.662</v>
-      </c>
-      <c r="K27">
-        <v>0.673</v>
-      </c>
-      <c r="L27">
-        <v>0.527</v>
-      </c>
-      <c r="M27">
-        <v>0.638</v>
-      </c>
-      <c r="N27">
-        <v>0.545</v>
-      </c>
-      <c r="O27">
-        <v>0.669</v>
-      </c>
       <c r="P27">
-        <v>0.8</v>
+        <v>0.554</v>
       </c>
       <c r="Q27">
-        <v>0.827</v>
+        <v>0.543</v>
       </c>
       <c r="R27">
-        <v>0.83</v>
+        <v>0.602</v>
       </c>
       <c r="S27">
-        <v>0.858</v>
+        <v>0.528</v>
       </c>
       <c r="T27">
-        <v>0.826</v>
+        <v>0.523</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -1618,23 +1597,17 @@
       <c r="C28" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28">
-        <v>0.616</v>
-      </c>
       <c r="P28">
-        <v>0.58</v>
+        <v>0.456</v>
       </c>
       <c r="Q28">
-        <v>0.546</v>
+        <v>0.539</v>
       </c>
       <c r="R28">
-        <v>0.443</v>
+        <v>0.421</v>
       </c>
       <c r="S28">
-        <v>0.5639999999999999</v>
+        <v>0.465</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -1648,43 +1621,31 @@
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H29">
-        <v>0.588</v>
+        <v>27</v>
+      </c>
+      <c r="I29">
+        <v>0.822</v>
       </c>
       <c r="J29">
-        <v>0.584</v>
-      </c>
-      <c r="K29">
-        <v>0.604</v>
-      </c>
-      <c r="L29">
-        <v>0.726</v>
-      </c>
-      <c r="M29">
-        <v>0.73</v>
-      </c>
-      <c r="N29">
-        <v>0.746</v>
+        <v>0.951</v>
       </c>
       <c r="O29">
-        <v>0.701</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P29">
-        <v>0.472</v>
+        <v>0.544</v>
       </c>
       <c r="Q29">
-        <v>0.458</v>
+        <v>0.535</v>
       </c>
       <c r="R29">
-        <v>0.457</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="S29">
-        <v>0.504</v>
+        <v>0.532</v>
       </c>
       <c r="T29">
-        <v>0.529</v>
+        <v>0.453</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -1698,55 +1659,25 @@
         <v>24</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30">
-        <v>0.6</v>
-      </c>
-      <c r="F30">
-        <v>0.583</v>
-      </c>
-      <c r="G30">
-        <v>0.747</v>
-      </c>
-      <c r="H30">
-        <v>0.626</v>
-      </c>
-      <c r="I30">
-        <v>0.775</v>
-      </c>
-      <c r="J30">
-        <v>0.739</v>
-      </c>
-      <c r="K30">
-        <v>0.6909999999999999</v>
-      </c>
-      <c r="L30">
-        <v>0.8070000000000001</v>
-      </c>
-      <c r="M30">
-        <v>0.819</v>
-      </c>
-      <c r="N30">
-        <v>0.785</v>
+        <v>29</v>
       </c>
       <c r="O30">
-        <v>0.795</v>
+        <v>0.581</v>
       </c>
       <c r="P30">
-        <v>0.772</v>
+        <v>0.622</v>
       </c>
       <c r="Q30">
-        <v>0.767</v>
+        <v>0.633</v>
       </c>
       <c r="R30">
-        <v>0.737</v>
+        <v>0.601</v>
       </c>
       <c r="S30">
-        <v>0.765</v>
+        <v>0.513</v>
       </c>
       <c r="T30">
-        <v>0.755</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -1760,31 +1691,31 @@
         <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I31">
-        <v>0.822</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="J31">
-        <v>0.951</v>
+        <v>0.829</v>
       </c>
       <c r="O31">
-        <v>0.5600000000000001</v>
+        <v>0.719</v>
       </c>
       <c r="P31">
-        <v>0.544</v>
+        <v>0.749</v>
       </c>
       <c r="Q31">
-        <v>0.535</v>
+        <v>0.746</v>
       </c>
       <c r="R31">
-        <v>0.5600000000000001</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="S31">
-        <v>0.532</v>
+        <v>0.736</v>
       </c>
       <c r="T31">
-        <v>0.453</v>
+        <v>0.642</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -1798,55 +1729,43 @@
         <v>19</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32">
-        <v>0.778</v>
-      </c>
-      <c r="F32">
-        <v>0.6840000000000001</v>
-      </c>
-      <c r="G32">
-        <v>0.804</v>
+        <v>31</v>
       </c>
       <c r="H32">
-        <v>0.745</v>
-      </c>
-      <c r="I32">
-        <v>0.77</v>
+        <v>0.605</v>
       </c>
       <c r="J32">
-        <v>0.782</v>
+        <v>0.515</v>
       </c>
       <c r="K32">
-        <v>0.749</v>
+        <v>0.602</v>
       </c>
       <c r="L32">
-        <v>0.857</v>
+        <v>0.717</v>
       </c>
       <c r="M32">
-        <v>0.894</v>
+        <v>0.738</v>
       </c>
       <c r="N32">
-        <v>0.83</v>
+        <v>0.716</v>
       </c>
       <c r="O32">
-        <v>0.774</v>
+        <v>0.669</v>
       </c>
       <c r="P32">
-        <v>0.854</v>
+        <v>0.493</v>
       </c>
       <c r="Q32">
-        <v>0.8129999999999999</v>
+        <v>0.462</v>
       </c>
       <c r="R32">
-        <v>0.8080000000000001</v>
+        <v>0.473</v>
       </c>
       <c r="S32">
-        <v>0.8090000000000001</v>
+        <v>0.504</v>
       </c>
       <c r="T32">
-        <v>0.789</v>
+        <v>0.547</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -1863,37 +1782,37 @@
         <v>26</v>
       </c>
       <c r="J33">
-        <v>0.622</v>
+        <v>0.573</v>
       </c>
       <c r="K33">
-        <v>0.418</v>
+        <v>0.479</v>
       </c>
       <c r="L33">
-        <v>0.492</v>
+        <v>0.47</v>
       </c>
       <c r="M33">
+        <v>0.527</v>
+      </c>
+      <c r="N33">
         <v>0.55</v>
       </c>
-      <c r="N33">
-        <v>0.506</v>
-      </c>
       <c r="O33">
-        <v>0.556</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="P33">
-        <v>0.699</v>
+        <v>0.458</v>
       </c>
       <c r="Q33">
-        <v>0.721</v>
+        <v>0.488</v>
       </c>
       <c r="R33">
-        <v>0.74</v>
+        <v>0.486</v>
       </c>
       <c r="S33">
-        <v>0.728</v>
+        <v>0.526</v>
       </c>
       <c r="T33">
-        <v>0.713</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -1906,23 +1825,17 @@
       <c r="C34" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H34">
-        <v>0.54</v>
-      </c>
       <c r="P34">
-        <v>0.508</v>
+        <v>0.721</v>
       </c>
       <c r="Q34">
-        <v>0.528</v>
+        <v>0.681</v>
       </c>
       <c r="R34">
-        <v>0.388</v>
+        <v>0.71</v>
       </c>
       <c r="S34">
-        <v>0.479</v>
+        <v>0.729</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -1936,43 +1849,43 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H35">
-        <v>0.64</v>
+        <v>0.588</v>
       </c>
       <c r="J35">
-        <v>0.526</v>
+        <v>0.584</v>
       </c>
       <c r="K35">
-        <v>0.666</v>
+        <v>0.604</v>
       </c>
       <c r="L35">
-        <v>0.793</v>
+        <v>0.726</v>
       </c>
       <c r="M35">
-        <v>0.757</v>
+        <v>0.73</v>
       </c>
       <c r="N35">
-        <v>0.794</v>
+        <v>0.746</v>
       </c>
       <c r="O35">
-        <v>0.741</v>
+        <v>0.701</v>
       </c>
       <c r="P35">
-        <v>0.515</v>
+        <v>0.472</v>
       </c>
       <c r="Q35">
-        <v>0.534</v>
+        <v>0.458</v>
       </c>
       <c r="R35">
-        <v>0.524</v>
+        <v>0.457</v>
       </c>
       <c r="S35">
-        <v>0.52</v>
+        <v>0.504</v>
       </c>
       <c r="T35">
-        <v>0.598</v>
+        <v>0.529</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -1986,55 +1899,25 @@
         <v>23</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36">
-        <v>0.6</v>
-      </c>
-      <c r="F36">
-        <v>0.583</v>
-      </c>
-      <c r="G36">
-        <v>0.747</v>
-      </c>
-      <c r="H36">
-        <v>0.626</v>
-      </c>
-      <c r="I36">
-        <v>0.775</v>
-      </c>
-      <c r="J36">
-        <v>0.739</v>
-      </c>
-      <c r="K36">
-        <v>0.6909999999999999</v>
-      </c>
-      <c r="L36">
-        <v>0.8070000000000001</v>
-      </c>
-      <c r="M36">
-        <v>0.819</v>
-      </c>
-      <c r="N36">
-        <v>0.785</v>
+        <v>28</v>
       </c>
       <c r="O36">
-        <v>0.795</v>
+        <v>0.581</v>
       </c>
       <c r="P36">
-        <v>0.772</v>
+        <v>0.622</v>
       </c>
       <c r="Q36">
-        <v>0.767</v>
+        <v>0.633</v>
       </c>
       <c r="R36">
-        <v>0.737</v>
+        <v>0.601</v>
       </c>
       <c r="S36">
-        <v>0.765</v>
+        <v>0.513</v>
       </c>
       <c r="T36">
-        <v>0.755</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2048,31 +1931,43 @@
         <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I37">
-        <v>0.8080000000000001</v>
+        <v>30</v>
+      </c>
+      <c r="H37">
+        <v>0.64</v>
       </c>
       <c r="J37">
-        <v>0.829</v>
+        <v>0.526</v>
+      </c>
+      <c r="K37">
+        <v>0.666</v>
+      </c>
+      <c r="L37">
+        <v>0.793</v>
+      </c>
+      <c r="M37">
+        <v>0.757</v>
+      </c>
+      <c r="N37">
+        <v>0.794</v>
       </c>
       <c r="O37">
-        <v>0.719</v>
+        <v>0.741</v>
       </c>
       <c r="P37">
-        <v>0.749</v>
+        <v>0.515</v>
       </c>
       <c r="Q37">
-        <v>0.746</v>
+        <v>0.534</v>
       </c>
       <c r="R37">
-        <v>0.8070000000000001</v>
+        <v>0.524</v>
       </c>
       <c r="S37">
-        <v>0.736</v>
+        <v>0.52</v>
       </c>
       <c r="T37">
-        <v>0.642</v>
+        <v>0.598</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -2086,31 +1981,55 @@
         <v>19</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="E38">
+        <v>0.778</v>
+      </c>
+      <c r="F38">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="G38">
+        <v>0.804</v>
+      </c>
+      <c r="H38">
+        <v>0.745</v>
       </c>
       <c r="I38">
-        <v>0.626</v>
+        <v>0.77</v>
       </c>
       <c r="J38">
-        <v>0.831</v>
+        <v>0.782</v>
+      </c>
+      <c r="K38">
+        <v>0.749</v>
+      </c>
+      <c r="L38">
+        <v>0.857</v>
+      </c>
+      <c r="M38">
+        <v>0.894</v>
+      </c>
+      <c r="N38">
+        <v>0.83</v>
       </c>
       <c r="O38">
-        <v>0.596</v>
+        <v>0.774</v>
       </c>
       <c r="P38">
-        <v>0.6840000000000001</v>
+        <v>0.854</v>
       </c>
       <c r="Q38">
-        <v>0.631</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="R38">
-        <v>0.663</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="S38">
-        <v>0.646</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="T38">
-        <v>0.5580000000000001</v>
+        <v>0.789</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -2126,20 +2045,38 @@
       <c r="D39" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="J39">
+        <v>0.622</v>
+      </c>
+      <c r="K39">
+        <v>0.418</v>
+      </c>
+      <c r="L39">
+        <v>0.492</v>
+      </c>
+      <c r="M39">
+        <v>0.55</v>
+      </c>
+      <c r="N39">
+        <v>0.506</v>
+      </c>
+      <c r="O39">
+        <v>0.556</v>
+      </c>
       <c r="P39">
-        <v>0.554</v>
+        <v>0.699</v>
       </c>
       <c r="Q39">
-        <v>0.543</v>
+        <v>0.721</v>
       </c>
       <c r="R39">
-        <v>0.602</v>
+        <v>0.74</v>
       </c>
       <c r="S39">
-        <v>0.528</v>
+        <v>0.728</v>
       </c>
       <c r="T39">
-        <v>0.523</v>
+        <v>0.713</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -2152,20 +2089,20 @@
       <c r="C40" t="s">
         <v>21</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>27</v>
+      <c r="H40">
+        <v>0.54</v>
       </c>
       <c r="P40">
-        <v>0.456</v>
+        <v>0.508</v>
       </c>
       <c r="Q40">
-        <v>0.539</v>
+        <v>0.528</v>
       </c>
       <c r="R40">
-        <v>0.421</v>
+        <v>0.388</v>
       </c>
       <c r="S40">
-        <v>0.465</v>
+        <v>0.479</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -2179,25 +2116,55 @@
         <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="E41">
+        <v>0.6</v>
+      </c>
+      <c r="F41">
+        <v>0.583</v>
+      </c>
+      <c r="G41">
+        <v>0.747</v>
+      </c>
+      <c r="H41">
+        <v>0.626</v>
+      </c>
+      <c r="I41">
+        <v>0.775</v>
+      </c>
+      <c r="J41">
+        <v>0.739</v>
+      </c>
+      <c r="K41">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="L41">
+        <v>0.8070000000000001</v>
+      </c>
+      <c r="M41">
+        <v>0.819</v>
+      </c>
+      <c r="N41">
+        <v>0.785</v>
       </c>
       <c r="O41">
-        <v>0.581</v>
+        <v>0.795</v>
       </c>
       <c r="P41">
-        <v>0.622</v>
+        <v>0.772</v>
       </c>
       <c r="Q41">
-        <v>0.633</v>
+        <v>0.767</v>
       </c>
       <c r="R41">
-        <v>0.601</v>
+        <v>0.737</v>
       </c>
       <c r="S41">
-        <v>0.513</v>
+        <v>0.765</v>
       </c>
       <c r="T41">
-        <v>0.703</v>
+        <v>0.755</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -2211,31 +2178,31 @@
         <v>23</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I42">
-        <v>0.822</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="J42">
-        <v>0.951</v>
+        <v>0.829</v>
       </c>
       <c r="O42">
-        <v>0.5600000000000001</v>
+        <v>0.719</v>
       </c>
       <c r="P42">
-        <v>0.544</v>
+        <v>0.749</v>
       </c>
       <c r="Q42">
-        <v>0.535</v>
+        <v>0.746</v>
       </c>
       <c r="R42">
-        <v>0.5600000000000001</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="S42">
-        <v>0.532</v>
+        <v>0.736</v>
       </c>
       <c r="T42">
-        <v>0.453</v>
+        <v>0.642</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -2249,77 +2216,83 @@
         <v>24</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I43">
-        <v>0.8080000000000001</v>
+        <v>29</v>
+      </c>
+      <c r="H43">
+        <v>0.64</v>
       </c>
       <c r="J43">
-        <v>0.829</v>
+        <v>0.526</v>
+      </c>
+      <c r="K43">
+        <v>0.666</v>
+      </c>
+      <c r="L43">
+        <v>0.793</v>
+      </c>
+      <c r="M43">
+        <v>0.757</v>
+      </c>
+      <c r="N43">
+        <v>0.794</v>
       </c>
       <c r="O43">
-        <v>0.719</v>
+        <v>0.741</v>
       </c>
       <c r="P43">
-        <v>0.749</v>
+        <v>0.515</v>
       </c>
       <c r="Q43">
-        <v>0.746</v>
+        <v>0.534</v>
       </c>
       <c r="R43">
-        <v>0.8070000000000001</v>
+        <v>0.524</v>
       </c>
       <c r="S43">
-        <v>0.736</v>
+        <v>0.52</v>
       </c>
       <c r="T43">
-        <v>0.642</v>
+        <v>0.598</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
-    <hyperlink ref="D9" r:id="rId8"/>
-    <hyperlink ref="D10" r:id="rId9"/>
-    <hyperlink ref="D11" r:id="rId10"/>
-    <hyperlink ref="D12" r:id="rId11"/>
-    <hyperlink ref="D13" r:id="rId12"/>
-    <hyperlink ref="D14" r:id="rId13"/>
-    <hyperlink ref="D15" r:id="rId14"/>
-    <hyperlink ref="D16" r:id="rId15"/>
-    <hyperlink ref="D17" r:id="rId16"/>
-    <hyperlink ref="D18" r:id="rId17"/>
-    <hyperlink ref="D19" r:id="rId18"/>
-    <hyperlink ref="D20" r:id="rId19"/>
-    <hyperlink ref="D21" r:id="rId20"/>
-    <hyperlink ref="D22" r:id="rId21"/>
-    <hyperlink ref="D23" r:id="rId22"/>
-    <hyperlink ref="D24" r:id="rId23"/>
-    <hyperlink ref="D25" r:id="rId24"/>
-    <hyperlink ref="D26" r:id="rId25"/>
-    <hyperlink ref="D27" r:id="rId26"/>
-    <hyperlink ref="D28" r:id="rId27"/>
-    <hyperlink ref="D29" r:id="rId28"/>
-    <hyperlink ref="D30" r:id="rId29"/>
-    <hyperlink ref="D31" r:id="rId30"/>
-    <hyperlink ref="D32" r:id="rId31"/>
-    <hyperlink ref="D33" r:id="rId32"/>
-    <hyperlink ref="D34" r:id="rId33"/>
-    <hyperlink ref="D35" r:id="rId34"/>
-    <hyperlink ref="D36" r:id="rId35"/>
-    <hyperlink ref="D37" r:id="rId36"/>
-    <hyperlink ref="D38" r:id="rId37"/>
-    <hyperlink ref="D39" r:id="rId38"/>
-    <hyperlink ref="D40" r:id="rId39"/>
-    <hyperlink ref="D41" r:id="rId40"/>
-    <hyperlink ref="D42" r:id="rId41"/>
-    <hyperlink ref="D43" r:id="rId42"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D7" r:id="rId5"/>
+    <hyperlink ref="D8" r:id="rId6"/>
+    <hyperlink ref="D10" r:id="rId7"/>
+    <hyperlink ref="D11" r:id="rId8"/>
+    <hyperlink ref="D12" r:id="rId9"/>
+    <hyperlink ref="D13" r:id="rId10"/>
+    <hyperlink ref="D14" r:id="rId11"/>
+    <hyperlink ref="D15" r:id="rId12"/>
+    <hyperlink ref="D16" r:id="rId13"/>
+    <hyperlink ref="D17" r:id="rId14"/>
+    <hyperlink ref="D18" r:id="rId15"/>
+    <hyperlink ref="D19" r:id="rId16"/>
+    <hyperlink ref="D20" r:id="rId17"/>
+    <hyperlink ref="D21" r:id="rId18"/>
+    <hyperlink ref="D23" r:id="rId19"/>
+    <hyperlink ref="D24" r:id="rId20"/>
+    <hyperlink ref="D25" r:id="rId21"/>
+    <hyperlink ref="D26" r:id="rId22"/>
+    <hyperlink ref="D27" r:id="rId23"/>
+    <hyperlink ref="D29" r:id="rId24"/>
+    <hyperlink ref="D30" r:id="rId25"/>
+    <hyperlink ref="D31" r:id="rId26"/>
+    <hyperlink ref="D32" r:id="rId27"/>
+    <hyperlink ref="D33" r:id="rId28"/>
+    <hyperlink ref="D35" r:id="rId29"/>
+    <hyperlink ref="D36" r:id="rId30"/>
+    <hyperlink ref="D37" r:id="rId31"/>
+    <hyperlink ref="D38" r:id="rId32"/>
+    <hyperlink ref="D39" r:id="rId33"/>
+    <hyperlink ref="D41" r:id="rId34"/>
+    <hyperlink ref="D42" r:id="rId35"/>
+    <hyperlink ref="D43" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ep/ep/export/flourish/Joint_group_group.xlsx
+++ b/ep/ep/export/flourish/Joint_group_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="33">
   <si>
     <t>name1</t>
   </si>
@@ -79,7 +79,7 @@
     <t>ECR</t>
   </si>
   <si>
-    <t>EN</t>
+    <t>ENF</t>
   </si>
   <si>
     <t>EPP</t>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>https://szekelydata.csaladen.es/ep/ep/img/ecr.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/enf.jpg</t>
   </si>
   <si>
     <t>https://szekelydata.csaladen.es/ep/ep/img/epp.jpg</t>
@@ -602,6 +605,9 @@
       <c r="C3" t="s">
         <v>21</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="H3">
         <v>0.539</v>
       </c>
@@ -629,7 +635,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0.736</v>
@@ -691,7 +697,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I5">
         <v>0.626</v>
@@ -729,7 +735,7 @@
         <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H6">
         <v>0.605</v>
@@ -779,7 +785,7 @@
         <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>0.778</v>
@@ -841,7 +847,7 @@
         <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J8">
         <v>0.729</v>
@@ -887,6 +893,9 @@
       <c r="C9" t="s">
         <v>21</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="P9">
         <v>0.466</v>
       </c>
@@ -911,7 +920,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J10">
         <v>0.662</v>
@@ -958,7 +967,7 @@
         <v>23</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P11">
         <v>0.554</v>
@@ -987,7 +996,7 @@
         <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J12">
         <v>0.573</v>
@@ -1034,7 +1043,7 @@
         <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J13">
         <v>0.622</v>
@@ -1081,7 +1090,7 @@
         <v>19</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H14">
         <v>0.539</v>
@@ -1136,7 +1145,7 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H16">
         <v>0.616</v>
@@ -1165,7 +1174,7 @@
         <v>23</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P17">
         <v>0.456</v>
@@ -1191,7 +1200,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P18">
         <v>0.721</v>
@@ -1217,7 +1226,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H19">
         <v>0.54</v>
@@ -1246,7 +1255,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E20">
         <v>0.736</v>
@@ -1354,6 +1363,9 @@
       <c r="C22" t="s">
         <v>21</v>
       </c>
+      <c r="D22" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="H22">
         <v>0.616</v>
       </c>
@@ -1381,7 +1393,7 @@
         <v>23</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I23">
         <v>0.822</v>
@@ -1419,7 +1431,7 @@
         <v>24</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H24">
         <v>0.588</v>
@@ -1469,7 +1481,7 @@
         <v>25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E25">
         <v>0.6</v>
@@ -1531,7 +1543,7 @@
         <v>19</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I26">
         <v>0.626</v>
@@ -1597,6 +1609,9 @@
       <c r="C28" t="s">
         <v>21</v>
       </c>
+      <c r="D28" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="P28">
         <v>0.456</v>
       </c>
@@ -1621,7 +1636,7 @@
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I29">
         <v>0.822</v>
@@ -1659,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O30">
         <v>0.581</v>
@@ -1691,7 +1706,7 @@
         <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I31">
         <v>0.8080000000000001</v>
@@ -1729,7 +1744,7 @@
         <v>19</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H32">
         <v>0.605</v>
@@ -1825,6 +1840,9 @@
       <c r="C34" t="s">
         <v>21</v>
       </c>
+      <c r="D34" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="P34">
         <v>0.721</v>
       </c>
@@ -1849,7 +1867,7 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H35">
         <v>0.588</v>
@@ -1899,7 +1917,7 @@
         <v>23</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O36">
         <v>0.581</v>
@@ -1931,7 +1949,7 @@
         <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H37">
         <v>0.64</v>
@@ -1981,7 +1999,7 @@
         <v>19</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E38">
         <v>0.778</v>
@@ -2089,6 +2107,9 @@
       <c r="C40" t="s">
         <v>21</v>
       </c>
+      <c r="D40" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="H40">
         <v>0.54</v>
       </c>
@@ -2116,7 +2137,7 @@
         <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E41">
         <v>0.6</v>
@@ -2178,7 +2199,7 @@
         <v>23</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I42">
         <v>0.8080000000000001</v>
@@ -2216,7 +2237,7 @@
         <v>24</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H43">
         <v>0.64</v>
@@ -2258,41 +2279,47 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="D6" r:id="rId4"/>
-    <hyperlink ref="D7" r:id="rId5"/>
-    <hyperlink ref="D8" r:id="rId6"/>
-    <hyperlink ref="D10" r:id="rId7"/>
-    <hyperlink ref="D11" r:id="rId8"/>
-    <hyperlink ref="D12" r:id="rId9"/>
-    <hyperlink ref="D13" r:id="rId10"/>
-    <hyperlink ref="D14" r:id="rId11"/>
-    <hyperlink ref="D15" r:id="rId12"/>
-    <hyperlink ref="D16" r:id="rId13"/>
-    <hyperlink ref="D17" r:id="rId14"/>
-    <hyperlink ref="D18" r:id="rId15"/>
-    <hyperlink ref="D19" r:id="rId16"/>
-    <hyperlink ref="D20" r:id="rId17"/>
-    <hyperlink ref="D21" r:id="rId18"/>
-    <hyperlink ref="D23" r:id="rId19"/>
-    <hyperlink ref="D24" r:id="rId20"/>
-    <hyperlink ref="D25" r:id="rId21"/>
-    <hyperlink ref="D26" r:id="rId22"/>
-    <hyperlink ref="D27" r:id="rId23"/>
-    <hyperlink ref="D29" r:id="rId24"/>
-    <hyperlink ref="D30" r:id="rId25"/>
-    <hyperlink ref="D31" r:id="rId26"/>
-    <hyperlink ref="D32" r:id="rId27"/>
-    <hyperlink ref="D33" r:id="rId28"/>
-    <hyperlink ref="D35" r:id="rId29"/>
-    <hyperlink ref="D36" r:id="rId30"/>
-    <hyperlink ref="D37" r:id="rId31"/>
-    <hyperlink ref="D38" r:id="rId32"/>
-    <hyperlink ref="D39" r:id="rId33"/>
-    <hyperlink ref="D41" r:id="rId34"/>
-    <hyperlink ref="D42" r:id="rId35"/>
-    <hyperlink ref="D43" r:id="rId36"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
+    <hyperlink ref="D41" r:id="rId40"/>
+    <hyperlink ref="D42" r:id="rId41"/>
+    <hyperlink ref="D43" r:id="rId42"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
